--- a/validate_netcharge/validate_netcharge.xlsx
+++ b/validate_netcharge/validate_netcharge.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="-216" windowWidth="23940" windowHeight="11904" activeTab="1"/>
+    <workbookView xWindow="6960" yWindow="-216" windowWidth="23940" windowHeight="11904" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="netcharge_new" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="139">
   <si>
     <t>H1</t>
   </si>
@@ -954,11 +955,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="50353280"/>
-        <c:axId val="50355200"/>
+        <c:axId val="136737920"/>
+        <c:axId val="136739456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50353280"/>
+        <c:axId val="136737920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -968,12 +969,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50355200"/>
+        <c:crossAx val="136739456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50355200"/>
+        <c:axId val="136739456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -984,7 +985,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50353280"/>
+        <c:crossAx val="136737920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1330,8 +1331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD50"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2296,7 +2297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
@@ -4089,7 +4090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
@@ -5010,4 +5011,981 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>128</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>129</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>164</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>-2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>-1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>-1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>-1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>-1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>-1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43">
+        <v>-1</v>
+      </c>
+      <c r="E43">
+        <v>-1</v>
+      </c>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>-2</v>
+      </c>
+      <c r="E44">
+        <v>-1</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>-1</v>
+      </c>
+      <c r="E48">
+        <v>-1</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>-1</v>
+      </c>
+      <c r="E51">
+        <v>-1</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>-1</v>
+      </c>
+      <c r="E57">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>-1</v>
+      </c>
+      <c r="E61">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>-1</v>
+      </c>
+      <c r="E65">
+        <v>-1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>-1</v>
+      </c>
+      <c r="E66">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/validate_netcharge/validate_netcharge.xlsx
+++ b/validate_netcharge/validate_netcharge.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1128" yWindow="696" windowWidth="14088" windowHeight="11844" activeTab="6"/>
+    <workbookView xWindow="1125" yWindow="690" windowWidth="14085" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="182">
   <si>
     <t>H1</t>
   </si>
@@ -564,16 +564,20 @@
   <si>
     <t>Das.10</t>
   </si>
+  <si>
+    <t>other 17 substitutions from http://www.sciencemag.org/content/326/5953/734/F3.large.jpg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -609,8 +613,15 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -665,9 +676,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -682,7 +693,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1111,11 +1122,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="121110912"/>
-        <c:axId val="121112448"/>
+        <c:axId val="221853952"/>
+        <c:axId val="221868032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="121110912"/>
+        <c:axId val="221853952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1125,12 +1136,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121112448"/>
+        <c:crossAx val="221868032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="121112448"/>
+        <c:axId val="221868032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1141,7 +1152,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121110912"/>
+        <c:crossAx val="221853952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1198,7 +1209,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1484,18 +1495,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1512,7 +1523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1529,7 +1540,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1543,7 +1554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1557,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1571,7 +1582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1585,7 +1596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1599,7 +1610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1613,7 +1624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1627,7 +1638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1641,7 +1652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1655,7 +1666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1669,7 +1680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1683,7 +1694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1697,7 +1708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1711,7 +1722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1725,7 +1736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1739,7 +1750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1753,7 +1764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1767,7 +1778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1781,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1795,7 +1806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1809,7 +1820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1823,7 +1834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1837,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1851,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1865,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1879,7 +1890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1893,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1907,7 +1918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -1921,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -1935,7 +1946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1949,7 +1960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1963,7 +1974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1977,7 +1988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -1991,7 +2002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -2005,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -2019,7 +2030,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -2033,7 +2044,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -2047,7 +2058,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -2061,7 +2072,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -2075,7 +2086,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -2092,7 +2103,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -2107,7 +2118,7 @@
       </c>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>50</v>
       </c>
@@ -2124,7 +2135,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>56</v>
       </c>
@@ -2138,7 +2149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>57</v>
       </c>
@@ -2152,7 +2163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>88</v>
       </c>
@@ -2166,7 +2177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>52</v>
       </c>
@@ -2183,7 +2194,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
@@ -2197,7 +2208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>54</v>
       </c>
@@ -2212,7 +2223,7 @@
       </c>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>58</v>
       </c>
@@ -2229,7 +2240,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>59</v>
       </c>
@@ -2243,7 +2254,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>60</v>
       </c>
@@ -2257,7 +2268,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>61</v>
       </c>
@@ -2271,7 +2282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>62</v>
       </c>
@@ -2285,7 +2296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>67</v>
       </c>
@@ -2299,7 +2310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>64</v>
       </c>
@@ -2313,7 +2324,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>65</v>
       </c>
@@ -2327,7 +2338,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>66</v>
       </c>
@@ -2341,7 +2352,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>68</v>
       </c>
@@ -2355,7 +2366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>71</v>
       </c>
@@ -2369,7 +2380,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>69</v>
       </c>
@@ -2383,7 +2394,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>72</v>
       </c>
@@ -2397,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>73</v>
       </c>
@@ -2411,7 +2422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>109</v>
       </c>
@@ -2428,7 +2439,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>111</v>
       </c>
@@ -2442,7 +2453,13 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E67" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2456,18 +2473,18 @@
       <selection activeCell="L6" sqref="L6:N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" customWidth="1"/>
-    <col min="3" max="5" width="7.77734375" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="5" width="7.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -2494,7 +2511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -2536,7 +2553,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -2578,7 +2595,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -2620,7 +2637,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -2653,7 +2670,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -2686,7 +2703,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -2725,7 +2742,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -2764,7 +2781,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -2800,7 +2817,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -2830,7 +2847,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -2860,7 +2877,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -2890,7 +2907,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -2926,7 +2943,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
@@ -2962,7 +2979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
@@ -2998,7 +3015,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
@@ -3028,7 +3045,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
@@ -3058,7 +3075,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
@@ -3088,7 +3105,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
@@ -3118,7 +3135,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>25</v>
       </c>
@@ -3148,7 +3165,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>26</v>
       </c>
@@ -3175,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>27</v>
       </c>
@@ -3205,7 +3222,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>28</v>
       </c>
@@ -3235,7 +3252,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>29</v>
       </c>
@@ -3262,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>30</v>
       </c>
@@ -3289,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
@@ -3316,7 +3333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>32</v>
       </c>
@@ -3343,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>33</v>
       </c>
@@ -3370,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>34</v>
       </c>
@@ -3397,7 +3414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>35</v>
       </c>
@@ -3424,7 +3441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>36</v>
       </c>
@@ -3451,7 +3468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>37</v>
       </c>
@@ -3478,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>38</v>
       </c>
@@ -3505,7 +3522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>39</v>
       </c>
@@ -3532,7 +3549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>40</v>
       </c>
@@ -3559,7 +3576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>41</v>
       </c>
@@ -3586,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>42</v>
       </c>
@@ -3613,7 +3630,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>43</v>
       </c>
@@ -3640,7 +3657,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>44</v>
       </c>
@@ -3667,7 +3684,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>45</v>
       </c>
@@ -3694,7 +3711,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>46</v>
       </c>
@@ -3721,7 +3738,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>47</v>
       </c>
@@ -3748,7 +3765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>50</v>
       </c>
@@ -3775,7 +3792,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>56</v>
       </c>
@@ -3802,7 +3819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>57</v>
       </c>
@@ -3829,7 +3846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>88</v>
       </c>
@@ -3856,7 +3873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>52</v>
       </c>
@@ -3883,7 +3900,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>53</v>
       </c>
@@ -3910,7 +3927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>54</v>
       </c>
@@ -3937,7 +3954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>58</v>
       </c>
@@ -3964,7 +3981,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>59</v>
       </c>
@@ -3991,7 +4008,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>60</v>
       </c>
@@ -4018,7 +4035,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>61</v>
       </c>
@@ -4045,7 +4062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>62</v>
       </c>
@@ -4072,7 +4089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>67</v>
       </c>
@@ -4099,7 +4116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>68</v>
       </c>
@@ -4126,7 +4143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>72</v>
       </c>
@@ -4153,7 +4170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>73</v>
       </c>
@@ -4180,7 +4197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>109</v>
       </c>
@@ -4207,7 +4224,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>112</v>
       </c>
@@ -4235,6 +4252,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4249,14 +4267,14 @@
       <selection activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" customWidth="1"/>
-    <col min="3" max="4" width="7.77734375" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="4" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -4279,7 +4297,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>116</v>
       </c>
@@ -4302,7 +4320,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -4316,7 +4334,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -4330,7 +4348,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>38</v>
       </c>
@@ -4344,7 +4362,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
@@ -4358,7 +4376,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>115</v>
       </c>
@@ -4372,7 +4390,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
@@ -4386,7 +4404,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>44</v>
       </c>
@@ -4400,7 +4418,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -4414,7 +4432,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>41</v>
       </c>
@@ -4428,7 +4446,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
@@ -4442,7 +4460,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -4456,7 +4474,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -4470,7 +4488,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>109</v>
       </c>
@@ -4484,7 +4502,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
@@ -4498,7 +4516,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -4512,7 +4530,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>52</v>
       </c>
@@ -4526,7 +4544,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>45</v>
       </c>
@@ -4540,7 +4558,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>46</v>
       </c>
@@ -4554,7 +4572,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>117</v>
       </c>
@@ -4577,7 +4595,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>10</v>
       </c>
@@ -4591,7 +4609,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
@@ -4605,7 +4623,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
@@ -4619,7 +4637,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>67</v>
       </c>
@@ -4633,7 +4651,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>112</v>
       </c>
@@ -4647,7 +4665,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>30</v>
       </c>
@@ -4661,7 +4679,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
@@ -4675,7 +4693,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>42</v>
       </c>
@@ -4689,7 +4707,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>27</v>
       </c>
@@ -4703,7 +4721,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>6</v>
       </c>
@@ -4717,7 +4735,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -4731,7 +4749,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>50</v>
       </c>
@@ -4745,7 +4763,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>8</v>
       </c>
@@ -4759,7 +4777,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>28</v>
       </c>
@@ -4773,7 +4791,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>29</v>
       </c>
@@ -4787,7 +4805,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>33</v>
       </c>
@@ -4801,7 +4819,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>34</v>
       </c>
@@ -4815,7 +4833,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>35</v>
       </c>
@@ -4829,7 +4847,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>54</v>
       </c>
@@ -4843,7 +4861,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>21</v>
       </c>
@@ -4857,7 +4875,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>31</v>
       </c>
@@ -4871,7 +4889,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>12</v>
       </c>
@@ -4885,7 +4903,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
@@ -4899,7 +4917,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>13</v>
       </c>
@@ -4913,7 +4931,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>14</v>
       </c>
@@ -4927,7 +4945,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>118</v>
       </c>
@@ -4950,7 +4968,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>16</v>
       </c>
@@ -4964,7 +4982,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>119</v>
       </c>
@@ -4987,7 +5005,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>120</v>
       </c>
@@ -5001,7 +5019,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>53</v>
       </c>
@@ -5015,7 +5033,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>121</v>
       </c>
@@ -5038,7 +5056,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>36</v>
       </c>
@@ -5052,7 +5070,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>37</v>
       </c>
@@ -5066,7 +5084,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>17</v>
       </c>
@@ -5080,7 +5098,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>68</v>
       </c>
@@ -5094,7 +5112,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>122</v>
       </c>
@@ -5117,7 +5135,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>123</v>
       </c>
@@ -5140,7 +5158,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>114</v>
       </c>
@@ -5154,7 +5172,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -5164,6 +5182,7 @@
   <sortState ref="A2:D61">
     <sortCondition ref="B2"/>
   </sortState>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5172,22 +5191,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC81"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView topLeftCell="F1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.21875" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
-    <col min="11" max="11" width="23.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5216,7 +5236,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -5247,7 +5267,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5275,7 +5295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -5303,7 +5323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -5331,7 +5351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -5359,7 +5379,7 @@
         <v>0.58496250072115619</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -5396,7 +5416,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -5433,7 +5453,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -5470,7 +5490,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -5507,7 +5527,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -5544,7 +5564,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -5571,6 +5591,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
       <c r="K12" t="s">
         <v>168</v>
       </c>
@@ -5578,7 +5601,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -5612,7 +5635,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -5640,7 +5663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -5668,7 +5691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -5696,7 +5719,7 @@
         <v>0.58496250072115619</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -5724,7 +5747,7 @@
         <v>0.58496250072115619</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -5752,7 +5775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -5780,7 +5803,7 @@
         <v>0.58496250072115619</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -5808,7 +5831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -5836,7 +5859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -5864,7 +5887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -5892,7 +5915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -5920,7 +5943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -5948,7 +5971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -5976,7 +5999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -6004,7 +6027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -6032,7 +6055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -6060,7 +6083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -6088,7 +6111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -6116,7 +6139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -6144,7 +6167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -6172,7 +6195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -6200,7 +6223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -6228,7 +6251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -6256,7 +6279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -6284,7 +6307,7 @@
         <v>-0.41503749927884381</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -6312,7 +6335,7 @@
         <v>-0.41503749927884381</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -6340,7 +6363,7 @@
         <v>-0.41503749927884381</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -6368,7 +6391,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -6396,7 +6419,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>109</v>
       </c>
@@ -6419,7 +6442,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>111</v>
       </c>
@@ -6442,7 +6465,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -6478,7 +6501,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -6509,7 +6532,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>151</v>
       </c>
@@ -6537,7 +6560,7 @@
       </c>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>50</v>
       </c>
@@ -6570,7 +6593,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>56</v>
       </c>
@@ -6594,7 +6617,7 @@
         <v>3.0018022426339854</v>
       </c>
     </row>
-    <row r="49" spans="1:16383" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16383" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>57</v>
       </c>
@@ -6618,7 +6641,7 @@
         <v>1.5801454844233804</v>
       </c>
     </row>
-    <row r="50" spans="1:16383" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16383" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>88</v>
       </c>
@@ -6642,7 +6665,7 @@
         <v>1.5753123306874368</v>
       </c>
     </row>
-    <row r="51" spans="1:16383" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16383" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>52</v>
       </c>
@@ -6675,7 +6698,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:16383" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16383" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>146</v>
       </c>
@@ -6700,7 +6723,7 @@
       </c>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:16383" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16383" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>53</v>
       </c>
@@ -6724,7 +6747,7 @@
         <v>0.97819562968165163</v>
       </c>
     </row>
-    <row r="54" spans="1:16383" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16383" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>147</v>
       </c>
@@ -6748,7 +6771,7 @@
         <v>-1.0291463456595165</v>
       </c>
     </row>
-    <row r="55" spans="1:16383" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16383" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>148</v>
       </c>
@@ -6772,7 +6795,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="56" spans="1:16383" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16383" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>145</v>
       </c>
@@ -6796,7 +6819,7 @@
         <v>-3.1844245711374275</v>
       </c>
     </row>
-    <row r="57" spans="1:16383" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16383" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>12</v>
       </c>
@@ -23192,7 +23215,7 @@
       <c r="XFB57" s="1"/>
       <c r="XFC57" s="1"/>
     </row>
-    <row r="58" spans="1:16383" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16383" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>150</v>
       </c>
@@ -23216,7 +23239,7 @@
         <v>-3.6438561897747253</v>
       </c>
     </row>
-    <row r="59" spans="1:16383" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16383" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>54</v>
       </c>
@@ -23242,7 +23265,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:16383" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16383" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>149</v>
       </c>
@@ -23267,19 +23290,19 @@
       </c>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:16383" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16383" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="1:16383" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16383" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="1:16383" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16383" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:16383" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16383" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>11</v>
       </c>
@@ -23312,7 +23335,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>58</v>
       </c>
@@ -23337,7 +23360,7 @@
       </c>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>59</v>
       </c>
@@ -23361,7 +23384,7 @@
         <v>-2.9434164716336326</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>60</v>
       </c>
@@ -23385,7 +23408,7 @@
         <v>-2.9434164716336326</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>61</v>
       </c>
@@ -23409,7 +23432,7 @@
         <v>0.38956681176272562</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>140</v>
       </c>
@@ -23433,7 +23456,7 @@
         <v>0.40053792958372886</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>67</v>
       </c>
@@ -23457,7 +23480,7 @@
         <v>2.176322772640463</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>141</v>
       </c>
@@ -23481,7 +23504,7 @@
         <v>-2.3219280948873622</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>64</v>
       </c>
@@ -23505,7 +23528,7 @@
         <v>-3.1844245711374275</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>65</v>
       </c>
@@ -23529,7 +23552,7 @@
         <v>-2.7369655941662061</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>142</v>
       </c>
@@ -23553,7 +23576,7 @@
         <v>1.4355292977070055E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>143</v>
       </c>
@@ -23577,7 +23600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>68</v>
       </c>
@@ -23601,7 +23624,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>169</v>
       </c>
@@ -23628,7 +23651,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>69</v>
       </c>
@@ -23652,7 +23675,7 @@
         <v>-2.8365012677171206</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>171</v>
       </c>
@@ -23679,7 +23702,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>170</v>
       </c>
@@ -23706,10 +23729,11 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J44" r:id="rId1"/>
     <hyperlink ref="J47" r:id="rId2"/>
@@ -23726,17 +23750,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>162</v>
       </c>
@@ -23750,7 +23774,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -23771,7 +23795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -23798,7 +23822,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>151</v>
       </c>
@@ -23825,7 +23849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>50</v>
       </c>
@@ -23852,7 +23876,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>56</v>
       </c>
@@ -23873,7 +23897,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>57</v>
       </c>
@@ -23897,7 +23921,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>88</v>
       </c>
@@ -23915,7 +23939,7 @@
         <v>1.5753123306874368</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>52</v>
       </c>
@@ -23933,7 +23957,7 @@
         <v>-2.1202942337177118</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>146</v>
       </c>
@@ -23951,7 +23975,7 @@
         <v>1.0635029423061579</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>53</v>
       </c>
@@ -23969,7 +23993,7 @@
         <v>0.97819562968165163</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>147</v>
       </c>
@@ -23987,7 +24011,7 @@
         <v>-1.0291463456595165</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>148</v>
       </c>
@@ -24005,7 +24029,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>145</v>
       </c>
@@ -24023,7 +24047,7 @@
         <v>-3.1844245711374275</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -24041,7 +24065,7 @@
         <v>1.5558161550616398</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>150</v>
       </c>
@@ -24059,7 +24083,7 @@
         <v>-3.6438561897747253</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>54</v>
       </c>
@@ -24077,7 +24101,7 @@
         <v>1.5558161550616398</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>149</v>
       </c>
@@ -24095,7 +24119,7 @@
         <v>-2.6438561897747248</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -24113,7 +24137,7 @@
         <v>3.2125693388508059</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>58</v>
       </c>
@@ -24131,7 +24155,7 @@
         <v>-2.7369655941662061</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>59</v>
       </c>
@@ -24149,7 +24173,7 @@
         <v>-2.9434164716336326</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>60</v>
       </c>
@@ -24167,7 +24191,7 @@
         <v>-2.9434164716336326</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>61</v>
       </c>
@@ -24185,7 +24209,7 @@
         <v>0.38956681176272562</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>140</v>
       </c>
@@ -24203,7 +24227,7 @@
         <v>0.40053792958372886</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>67</v>
       </c>
@@ -24221,7 +24245,7 @@
         <v>2.176322772640463</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>141</v>
       </c>
@@ -24239,7 +24263,7 @@
         <v>-2.3219280948873622</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>64</v>
       </c>
@@ -24257,7 +24281,7 @@
         <v>-3.1844245711374275</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>65</v>
       </c>
@@ -24275,7 +24299,7 @@
         <v>-2.7369655941662061</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>142</v>
       </c>
@@ -24293,7 +24317,7 @@
         <v>1.4355292977070055E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>143</v>
       </c>
@@ -24311,7 +24335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>68</v>
       </c>
@@ -24329,7 +24353,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>71</v>
       </c>
@@ -24347,7 +24371,7 @@
         <v>-1.3584539709124763</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
@@ -24365,7 +24389,7 @@
         <v>-2.8365012677171206</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>72</v>
       </c>
@@ -24383,7 +24407,7 @@
         <v>4.2644337408493722E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>73</v>
       </c>
@@ -24401,10 +24425,11 @@
         <v>0.58496250072115619</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -24414,13 +24439,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E41" sqref="A1:E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -24437,7 +24462,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -24454,7 +24479,7 @@
         <v>0.58496250072115619</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -24471,7 +24496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -24488,7 +24513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -24505,7 +24530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -24522,7 +24547,7 @@
         <v>0.58496250072115619</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -24539,7 +24564,7 @@
         <v>1.5849625007211563</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -24556,7 +24581,7 @@
         <v>1.5849625007211563</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -24573,7 +24598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -24590,7 +24615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -24607,7 +24632,7 @@
         <v>1.5849625007211563</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -24624,7 +24649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -24641,7 +24666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -24658,7 +24683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -24675,7 +24700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -24692,7 +24717,7 @@
         <v>0.58496250072115619</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -24709,7 +24734,7 @@
         <v>0.58496250072115619</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -24726,7 +24751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -24743,7 +24768,7 @@
         <v>0.58496250072115619</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -24760,7 +24785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -24777,7 +24802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -24794,7 +24819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -24811,7 +24836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -24828,7 +24853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -24845,7 +24870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -24862,7 +24887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -24879,7 +24904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -24896,7 +24921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -24913,7 +24938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -24930,7 +24955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -24947,7 +24972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -24964,7 +24989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -24981,7 +25006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -24998,7 +25023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -25015,7 +25040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -25032,7 +25057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -25049,7 +25074,7 @@
         <v>-0.41503749927884381</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -25066,7 +25091,7 @@
         <v>-0.41503749927884381</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -25083,7 +25108,7 @@
         <v>-0.41503749927884381</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -25100,7 +25125,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -25118,6 +25143,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -25126,19 +25152,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -25155,7 +25181,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>147</v>
       </c>
@@ -25173,7 +25199,7 @@
         <v>-1.0291463456595165</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>50</v>
       </c>
@@ -25197,7 +25223,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -25223,7 +25249,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>150</v>
       </c>
@@ -25262,7 +25288,7 @@
         <v>3.1275177225037762E+20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
@@ -25297,7 +25323,7 @@
         <v>177099.99999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>58</v>
       </c>
@@ -25334,7 +25360,7 @@
         <v>4.6534552327347916E-6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>149</v>
       </c>
@@ -25358,7 +25384,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>52</v>
       </c>
@@ -25379,7 +25405,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -25397,7 +25423,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>71</v>
       </c>
@@ -25415,7 +25441,7 @@
         <v>-1.3584539709124763</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -25432,7 +25458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -25449,7 +25475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -25466,7 +25492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -25483,7 +25509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -25500,7 +25526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -25517,7 +25543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>151</v>
       </c>
@@ -25535,7 +25561,7 @@
         <v>-3.8365012677171206</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>145</v>
       </c>
@@ -25553,7 +25579,7 @@
         <v>-3.1844245711374275</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
@@ -25571,7 +25597,7 @@
         <v>-2.9434164716336326</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>60</v>
       </c>
@@ -25589,7 +25615,7 @@
         <v>-2.9434164716336326</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>69</v>
       </c>
@@ -25607,7 +25633,7 @@
         <v>-2.8365012677171206</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>65</v>
       </c>
@@ -25625,7 +25651,7 @@
         <v>-2.7369655941662061</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>141</v>
       </c>
@@ -25643,7 +25669,7 @@
         <v>-2.3219280948873622</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>148</v>
       </c>
@@ -25661,7 +25687,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -25678,7 +25704,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -25695,7 +25721,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -25712,7 +25738,7 @@
         <v>-0.41503749927884381</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -25729,7 +25755,7 @@
         <v>-0.41503749927884381</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -25746,7 +25772,7 @@
         <v>-0.41503749927884381</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -25763,7 +25789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -25780,7 +25806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -25797,7 +25823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -25814,7 +25840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -25831,7 +25857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -25848,7 +25874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -25865,7 +25891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -25882,7 +25908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>143</v>
       </c>
@@ -25900,7 +25926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>142</v>
       </c>
@@ -25918,7 +25944,7 @@
         <v>1.4355292977070055E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>61</v>
       </c>
@@ -25936,7 +25962,7 @@
         <v>0.38956681176272562</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>140</v>
       </c>
@@ -25954,7 +25980,7 @@
         <v>0.40053792958372886</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -25971,7 +25997,7 @@
         <v>0.58496250072115619</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -25988,7 +26014,7 @@
         <v>0.58496250072115619</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -26005,7 +26031,7 @@
         <v>0.58496250072115619</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>73</v>
       </c>
@@ -26023,7 +26049,7 @@
         <v>0.58496250072115619</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -26040,7 +26066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>54</v>
       </c>
@@ -26058,7 +26084,7 @@
         <v>1.5558161550616398</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>57</v>
       </c>
@@ -26076,7 +26102,7 @@
         <v>1.5801454844233804</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -26093,7 +26119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>68</v>
       </c>
@@ -26111,7 +26137,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -26128,7 +26154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>35</v>
       </c>
@@ -26145,7 +26171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>37</v>
       </c>
@@ -26162,7 +26188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>72</v>
       </c>
@@ -26180,7 +26206,7 @@
         <v>4.2644337408493722E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -26197,7 +26223,7 @@
         <v>0.58496250072115619</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -26214,7 +26240,7 @@
         <v>0.58496250072115619</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>53</v>
       </c>
@@ -26232,7 +26258,7 @@
         <v>0.97819562968165163</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -26249,7 +26275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -26266,7 +26292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -26283,7 +26309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -26300,7 +26326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -26317,7 +26343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>146</v>
       </c>
@@ -26335,7 +26361,7 @@
         <v>1.0635029423061579</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>12</v>
       </c>
@@ -26353,7 +26379,7 @@
         <v>1.5558161550616398</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>88</v>
       </c>
@@ -26371,7 +26397,7 @@
         <v>1.5753123306874368</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -26388,7 +26414,7 @@
         <v>1.5849625007211563</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -26405,7 +26431,7 @@
         <v>1.5849625007211563</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -26422,7 +26448,7 @@
         <v>1.5849625007211563</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>56</v>
       </c>
@@ -26440,7 +26466,7 @@
         <v>3.0018022426339854</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>47</v>
       </c>
@@ -26458,7 +26484,7 @@
         <v>3.4195388915137843</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>41</v>
       </c>
@@ -26475,7 +26501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>67</v>
       </c>
@@ -26493,7 +26519,7 @@
         <v>2.176322772640463</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>11</v>
       </c>
@@ -26511,7 +26537,7 @@
         <v>3.2125693388508059</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -26532,6 +26558,7 @@
   <sortState ref="A2:E75">
     <sortCondition ref="B2:B75"/>
   </sortState>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>